--- a/Excel_Challenge_578 - Find Maximum Product.xlsx
+++ b/Excel_Challenge_578 - Find Maximum Product.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B37B987-664C-4AAE-8845-1ABED6015873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46285490-1D92-4D3F-9354-E9C9612CF77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23790" yWindow="0" windowWidth="23880" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="4" r:id="rId3"/>
+    <sheet name="MySingleFunction" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -90,12 +95,18 @@
   <si>
     <t>N3</t>
   </si>
+  <si>
+    <t>This is intriguing. All combinations have been generated here.</t>
+  </si>
+  <si>
+    <t>This is an excellent solution. I need to understand this.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +128,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -147,10 +187,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -158,9 +201,16 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Intro_Hd" xfId="3" xr:uid="{8C7D295F-6271-403A-9A3C-A5E7583E773D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7CE35CC8-607F-4519-B2ED-133300034164}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,6 +394,55 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>460866</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="A black text on a white background&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA8E480-CFAF-1461-00FE-E6E63F4CA865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="2578100"/>
+          <a:ext cx="3515216" cy="838317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -612,6 +711,35 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="346" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{BE5C3F13-7DE7-483E-819F-146597097DFF}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{734BD2F0-AB99-4405-97C2-7C359926A625}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
@@ -810,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9383764-75BD-4708-B2B7-FEFD2F38C2F8}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +957,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4912,7 +5040,4800 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N1" r:id="rId1" xr:uid="{AAF192DB-6DDE-483C-B1ED-9167F68F059F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7609F94-D06D-46DE-9604-3FD5C8A48854}">
+  <dimension ref="A1:S743"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>52480</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3:J11">_xlfn._xlws.SORT(-B3:B11)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>51168</v>
+      </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>47560</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="J7">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="str" cm="1">
+        <f t="array" ref="B15:B743">_xlfn.TOCOL(_xlfn.TOCOL(A3:A11&amp;-_xlfn.TOROW(B3:B11))&amp;-_xlfn.TOROW(C3:C11))</f>
+        <v>10-39-21</v>
+      </c>
+      <c r="F15" t="str" cm="1">
+        <f t="array" ref="F15:F41">_xlfn.REDUCE("",A3:C3,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.TOCOL(_xlpm.a&amp;_xlfn.TOROW(_xlfn.TAKE(_xlfn._xlws.SORT(-_xlpm.v:C11),3,1)),)))</f>
+        <v>-41-40-32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <v>10-39-10</v>
+      </c>
+      <c r="F16" t="str">
+        <v>-41-40-29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <v>10-39-6</v>
+      </c>
+      <c r="F17" t="str">
+        <v>-41-40-29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <v>10-39-24</v>
+      </c>
+      <c r="F18" t="str">
+        <v>-41-39-32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <v>10-39-29</v>
+      </c>
+      <c r="F19" t="str">
+        <v>-41-39-29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <v>10-39-13</v>
+      </c>
+      <c r="F20" t="str">
+        <v>-41-39-29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <v>10-39-3</v>
+      </c>
+      <c r="F21" t="str">
+        <v>-41-32-32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <v>10-39-32</v>
+      </c>
+      <c r="F22" t="str">
+        <v>-41-32-29</v>
+      </c>
+      <c r="I22" s="6" cm="1">
+        <f t="array" ref="I22:L24">_xlfn.LET(
+    _xlpm.a, --_xlfn.TEXTSPLIT(
+        _xlfn.CONCAT(
+            _xlfn.REDUCE(
+                "",
+                A3:C3,
+                _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.TOCOL(_xlpm.a &amp; _xlfn.TOROW(_xlfn.TAKE(_xlfn._xlws.SORT(-_xlpm.v:C11), 3, 1))))
+            ) &amp; "|"
+        ),
+        "-",
+        "|",
+        1
+    ),
+    _xlfn.TAKE(_xlfn._xlws.SORT(_xlfn.HSTACK(_xlfn.BYROW(_xlpm.a, _xleta.PRODUCT), _xlpm.a), , -1), 3)
+)</f>
+        <v>52480</v>
+      </c>
+      <c r="J22">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>40</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B23" t="str">
+        <v>10-39-29</v>
+      </c>
+      <c r="F23" t="str">
+        <v>-41-32-29</v>
+      </c>
+      <c r="I23">
+        <v>51168</v>
+      </c>
+      <c r="J23">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>39</v>
+      </c>
+      <c r="L23">
+        <v>32</v>
+      </c>
+      <c r="O23" t="str" cm="1">
+        <f t="array" ref="O23">_xlfn.CONCAT(_xlfn.TAKE(_xlfn._xlws.SORT(-A3:C11), 3, 1)&amp;"|")</f>
+        <v>-41|-35|-31|</v>
+      </c>
+      <c r="Q23" cm="1">
+        <f t="array" ref="Q23:S31">_xlfn._xlws.SORT(-A3:C11)</f>
+        <v>-41</v>
+      </c>
+      <c r="R23">
+        <v>-28</v>
+      </c>
+      <c r="S23">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B24" t="str">
+        <v>10-27-21</v>
+      </c>
+      <c r="F24" t="str">
+        <v>-35-40-32</v>
+      </c>
+      <c r="I24">
+        <v>47560</v>
+      </c>
+      <c r="J24">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>40</v>
+      </c>
+      <c r="L24">
+        <v>29</v>
+      </c>
+      <c r="Q24">
+        <v>-35</v>
+      </c>
+      <c r="R24">
+        <v>-40</v>
+      </c>
+      <c r="S24">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B25" t="str">
+        <v>10-27-10</v>
+      </c>
+      <c r="F25" t="str">
+        <v>-35-40-29</v>
+      </c>
+      <c r="Q25">
+        <v>-31</v>
+      </c>
+      <c r="R25">
+        <v>-9</v>
+      </c>
+      <c r="S25">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" t="str">
+        <v>10-27-6</v>
+      </c>
+      <c r="F26" t="str">
+        <v>-35-40-29</v>
+      </c>
+      <c r="Q26">
+        <v>-26</v>
+      </c>
+      <c r="R26">
+        <v>-27</v>
+      </c>
+      <c r="S26">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B27" t="str">
+        <v>10-27-24</v>
+      </c>
+      <c r="F27" t="str">
+        <v>-35-39-32</v>
+      </c>
+      <c r="I27" cm="1">
+        <f t="array" ref="I27:K53">_xlfn.LET(
+    _xlpm.a, --_xlfn.TEXTSPLIT(
+        _xlfn.CONCAT(
+            _xlfn.REDUCE(
+                "",
+                A3:C3,
+                _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.TOCOL(_xlpm.a &amp; _xlfn.TOROW(_xlfn.TAKE(_xlfn._xlws.SORT(-_xlpm.v:C11), 3, 1))))
+            ) &amp; "|"
+        ),
+        "-",
+        "|",
+        1
+    ),
+    _xlpm.a
+)</f>
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>32</v>
+      </c>
+      <c r="M27" t="str" cm="1">
+        <f t="array" ref="M27:M53" xml:space="preserve">
+            _xlfn.REDUCE(
+                "",
+                A3:C3,
+                _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.TOCOL(_xlpm.a &amp; _xlfn.TOROW(_xlfn.TAKE(_xlfn._xlws.SORT(-_xlpm.v:C11), 3, 1))))
+            )</f>
+        <v>-41-40-32</v>
+      </c>
+      <c r="Q27">
+        <v>-21</v>
+      </c>
+      <c r="R27">
+        <v>-32</v>
+      </c>
+      <c r="S27">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" t="str">
+        <v>10-27-29</v>
+      </c>
+      <c r="F28" t="str">
+        <v>-35-39-29</v>
+      </c>
+      <c r="I28">
+        <v>41</v>
+      </c>
+      <c r="J28">
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>29</v>
+      </c>
+      <c r="M28" t="str">
+        <v>-41-40-29</v>
+      </c>
+      <c r="Q28">
+        <v>-13</v>
+      </c>
+      <c r="R28">
+        <v>-21</v>
+      </c>
+      <c r="S28">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <v>10-27-13</v>
+      </c>
+      <c r="F29" t="str">
+        <v>-35-39-29</v>
+      </c>
+      <c r="I29">
+        <v>41</v>
+      </c>
+      <c r="J29">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>29</v>
+      </c>
+      <c r="M29" t="str">
+        <v>-41-40-29</v>
+      </c>
+      <c r="Q29">
+        <v>-10</v>
+      </c>
+      <c r="R29">
+        <v>-39</v>
+      </c>
+      <c r="S29">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <v>10-27-3</v>
+      </c>
+      <c r="F30" t="str">
+        <v>-35-32-32</v>
+      </c>
+      <c r="I30">
+        <v>41</v>
+      </c>
+      <c r="J30">
+        <v>39</v>
+      </c>
+      <c r="K30">
+        <v>32</v>
+      </c>
+      <c r="M30" t="str">
+        <v>-41-39-32</v>
+      </c>
+      <c r="Q30">
+        <v>-6</v>
+      </c>
+      <c r="R30">
+        <v>-28</v>
+      </c>
+      <c r="S30">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <v>10-27-32</v>
+      </c>
+      <c r="F31" t="str">
+        <v>-35-32-29</v>
+      </c>
+      <c r="I31">
+        <v>41</v>
+      </c>
+      <c r="J31">
+        <v>39</v>
+      </c>
+      <c r="K31">
+        <v>29</v>
+      </c>
+      <c r="M31" t="str">
+        <v>-41-39-29</v>
+      </c>
+      <c r="Q31">
+        <v>-3</v>
+      </c>
+      <c r="R31">
+        <v>-19</v>
+      </c>
+      <c r="S31">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <v>10-27-29</v>
+      </c>
+      <c r="F32" t="str">
+        <v>-35-32-29</v>
+      </c>
+      <c r="I32">
+        <v>41</v>
+      </c>
+      <c r="J32">
+        <v>39</v>
+      </c>
+      <c r="K32">
+        <v>29</v>
+      </c>
+      <c r="M32" t="str">
+        <v>-41-39-29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <v>10-19-21</v>
+      </c>
+      <c r="F33" t="str">
+        <v>-31-40-32</v>
+      </c>
+      <c r="I33">
+        <v>41</v>
+      </c>
+      <c r="J33">
+        <v>32</v>
+      </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+      <c r="M33" t="str">
+        <v>-41-32-32</v>
+      </c>
+      <c r="O33" t="str" cm="1">
+        <f t="array" ref="O33">_xlfn.CONCAT(
+            _xlfn.REDUCE(
+                "",
+                A3:C3,
+                _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.TOCOL(_xlpm.a &amp; _xlfn.TOROW(_xlfn.TAKE(_xlfn._xlws.SORT(-_xlpm.v:C11), 3, 1))))
+            ) &amp; "|"
+        )</f>
+        <v>-41-40-32|-41-40-29|-41-40-29|-41-39-32|-41-39-29|-41-39-29|-41-32-32|-41-32-29|-41-32-29|-35-40-32|-35-40-29|-35-40-29|-35-39-32|-35-39-29|-35-39-29|-35-32-32|-35-32-29|-35-32-29|-31-40-32|-31-40-29|-31-40-29|-31-39-32|-31-39-29|-31-39-29|-31-32-32|-31-32-29|-31-32-29|</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <v>10-19-10</v>
+      </c>
+      <c r="F34" t="str">
+        <v>-31-40-29</v>
+      </c>
+      <c r="I34">
+        <v>41</v>
+      </c>
+      <c r="J34">
+        <v>32</v>
+      </c>
+      <c r="K34">
+        <v>29</v>
+      </c>
+      <c r="M34" t="str">
+        <v>-41-32-29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" t="str">
+        <v>10-19-6</v>
+      </c>
+      <c r="F35" t="str">
+        <v>-31-40-29</v>
+      </c>
+      <c r="I35">
+        <v>41</v>
+      </c>
+      <c r="J35">
+        <v>32</v>
+      </c>
+      <c r="K35">
+        <v>29</v>
+      </c>
+      <c r="M35" t="str">
+        <v>-41-32-29</v>
+      </c>
+      <c r="O35" s="6" t="str" cm="1">
+        <f t="array" ref="O35:O43" xml:space="preserve"> _xlfn.REDUCE(
+                "",
+                A3:B3,
+                _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.TOCOL(_xlpm.a &amp; _xlfn.TOROW(_xlfn.TAKE(_xlfn._xlws.SORT(-_xlpm.v:C11), 3, 1))))
+            ) &amp; "|"</f>
+        <v>-41-40|</v>
+      </c>
+      <c r="P35" t="str">
+        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(O35))</f>
+        <v>-41-40|-41-39|-41-32|-35-40|-35-39|-35-32|-31-40|-31-39|-31-32|</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
+        <v>10-19-24</v>
+      </c>
+      <c r="F36" t="str">
+        <v>-31-39-32</v>
+      </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36">
+        <v>40</v>
+      </c>
+      <c r="K36">
+        <v>32</v>
+      </c>
+      <c r="M36" t="str">
+        <v>-35-40-32</v>
+      </c>
+      <c r="O36" t="str">
+        <v>-41-39|</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <v>10-19-29</v>
+      </c>
+      <c r="F37" t="str">
+        <v>-31-39-29</v>
+      </c>
+      <c r="I37">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>29</v>
+      </c>
+      <c r="M37" t="str">
+        <v>-35-40-29</v>
+      </c>
+      <c r="O37" t="str">
+        <v>-41-32|</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <v>10-19-13</v>
+      </c>
+      <c r="F38" t="str">
+        <v>-31-39-29</v>
+      </c>
+      <c r="I38">
+        <v>35</v>
+      </c>
+      <c r="J38">
+        <v>40</v>
+      </c>
+      <c r="K38">
+        <v>29</v>
+      </c>
+      <c r="M38" t="str">
+        <v>-35-40-29</v>
+      </c>
+      <c r="O38" t="str">
+        <v>-35-40|</v>
+      </c>
+      <c r="Q38" t="str" cm="1">
+        <f t="array" ref="Q38:Q46">_xlfn.REDUCE(
+                "",
+                A3:B3,
+                _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.TOCOL(_xlpm.a &amp; _xlfn.TOROW(_xlfn.TAKE(_xlfn._xlws.SORT(-_xlpm.v:C11), 3, 1))))
+            ) &amp; "|"</f>
+        <v>-41-40|</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <v>10-19-3</v>
+      </c>
+      <c r="F39" t="str">
+        <v>-31-32-32</v>
+      </c>
+      <c r="I39">
+        <v>35</v>
+      </c>
+      <c r="J39">
+        <v>39</v>
+      </c>
+      <c r="K39">
+        <v>32</v>
+      </c>
+      <c r="M39" t="str">
+        <v>-35-39-32</v>
+      </c>
+      <c r="O39" t="str">
+        <v>-35-39|</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>-41-39|</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <v>10-19-32</v>
+      </c>
+      <c r="F40" t="str">
+        <v>-31-32-29</v>
+      </c>
+      <c r="I40">
+        <v>35</v>
+      </c>
+      <c r="J40">
+        <v>39</v>
+      </c>
+      <c r="K40">
+        <v>29</v>
+      </c>
+      <c r="M40" t="str">
+        <v>-35-39-29</v>
+      </c>
+      <c r="O40" t="str">
+        <v>-35-32|</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>-41-32|</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <v>10-19-29</v>
+      </c>
+      <c r="F41" t="str">
+        <v>-31-32-29</v>
+      </c>
+      <c r="I41">
+        <v>35</v>
+      </c>
+      <c r="J41">
+        <v>39</v>
+      </c>
+      <c r="K41">
+        <v>29</v>
+      </c>
+      <c r="M41" t="str">
+        <v>-35-39-29</v>
+      </c>
+      <c r="O41" t="str">
+        <v>-31-40|</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>-35-40|</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <v>10-9-21</v>
+      </c>
+      <c r="I42">
+        <v>35</v>
+      </c>
+      <c r="J42">
+        <v>32</v>
+      </c>
+      <c r="K42">
+        <v>32</v>
+      </c>
+      <c r="M42" t="str">
+        <v>-35-32-32</v>
+      </c>
+      <c r="O42" t="str">
+        <v>-31-39|</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>-35-39|</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <v>10-9-10</v>
+      </c>
+      <c r="I43">
+        <v>35</v>
+      </c>
+      <c r="J43">
+        <v>32</v>
+      </c>
+      <c r="K43">
+        <v>29</v>
+      </c>
+      <c r="M43" t="str">
+        <v>-35-32-29</v>
+      </c>
+      <c r="O43" t="str">
+        <v>-31-32|</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>-35-32|</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <v>10-9-6</v>
+      </c>
+      <c r="I44">
+        <v>35</v>
+      </c>
+      <c r="J44">
+        <v>32</v>
+      </c>
+      <c r="K44">
+        <v>29</v>
+      </c>
+      <c r="M44" t="str">
+        <v>-35-32-29</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>-31-40|</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <v>10-9-24</v>
+      </c>
+      <c r="I45">
+        <v>31</v>
+      </c>
+      <c r="J45">
+        <v>40</v>
+      </c>
+      <c r="K45">
+        <v>32</v>
+      </c>
+      <c r="M45" t="str">
+        <v>-31-40-32</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>-31-39|</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <v>10-9-29</v>
+      </c>
+      <c r="I46">
+        <v>31</v>
+      </c>
+      <c r="J46">
+        <v>40</v>
+      </c>
+      <c r="K46">
+        <v>29</v>
+      </c>
+      <c r="M46" t="str">
+        <v>-31-40-29</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>-31-32|</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <v>10-9-13</v>
+      </c>
+      <c r="I47">
+        <v>31</v>
+      </c>
+      <c r="J47">
+        <v>40</v>
+      </c>
+      <c r="K47">
+        <v>29</v>
+      </c>
+      <c r="M47" t="str">
+        <v>-31-40-29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <v>10-9-3</v>
+      </c>
+      <c r="I48">
+        <v>31</v>
+      </c>
+      <c r="J48">
+        <v>39</v>
+      </c>
+      <c r="K48">
+        <v>32</v>
+      </c>
+      <c r="M48" t="str">
+        <v>-31-39-32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <v>10-9-32</v>
+      </c>
+      <c r="I49">
+        <v>31</v>
+      </c>
+      <c r="J49">
+        <v>39</v>
+      </c>
+      <c r="K49">
+        <v>29</v>
+      </c>
+      <c r="M49" t="str">
+        <v>-31-39-29</v>
+      </c>
+      <c r="Q49" t="str" cm="1">
+        <f t="array" ref="Q49:Q51">_xlfn.TAKE(_xlfn._xlws.SORT(-A3:C11), 3, 1)&amp;"|"</f>
+        <v>-41|</v>
+      </c>
+      <c r="R49" t="str" cm="1">
+        <f t="array" ref="R49:R51">_xlfn.ANCHORARRAY(Q49)&amp;_xlfn.TAKE(_xlfn._xlws.SORT(-B3:C11), 3, 1)&amp;"|"</f>
+        <v>-41|-40|</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <v>10-9-29</v>
+      </c>
+      <c r="I50">
+        <v>31</v>
+      </c>
+      <c r="J50">
+        <v>39</v>
+      </c>
+      <c r="K50">
+        <v>29</v>
+      </c>
+      <c r="M50" t="str">
+        <v>-31-39-29</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>-35|</v>
+      </c>
+      <c r="R50" t="str">
+        <v>-35|-39|</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B51" t="str">
+        <v>10-40-21</v>
+      </c>
+      <c r="I51">
+        <v>31</v>
+      </c>
+      <c r="J51">
+        <v>32</v>
+      </c>
+      <c r="K51">
+        <v>32</v>
+      </c>
+      <c r="M51" t="str">
+        <v>-31-32-32</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>-31|</v>
+      </c>
+      <c r="R51" t="str">
+        <v>-31|-32|</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B52" t="str">
+        <v>10-40-10</v>
+      </c>
+      <c r="I52">
+        <v>31</v>
+      </c>
+      <c r="J52">
+        <v>32</v>
+      </c>
+      <c r="K52">
+        <v>29</v>
+      </c>
+      <c r="M52" t="str">
+        <v>-31-32-29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B53" t="str">
+        <v>10-40-6</v>
+      </c>
+      <c r="I53">
+        <v>31</v>
+      </c>
+      <c r="J53">
+        <v>32</v>
+      </c>
+      <c r="K53">
+        <v>29</v>
+      </c>
+      <c r="M53" t="str">
+        <v>-31-32-29</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <v>10-40-24</v>
+      </c>
+      <c r="Q54">
+        <v>-41</v>
+      </c>
+      <c r="R54">
+        <v>-40</v>
+      </c>
+      <c r="S54" t="str" cm="1">
+        <f t="array" ref="S54:S62">_xlfn.TOCOL(Q54:Q56&amp;_xlfn.TOROW(R54:R56))</f>
+        <v>-41-40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <v>10-40-29</v>
+      </c>
+      <c r="Q55">
+        <v>-35</v>
+      </c>
+      <c r="R55">
+        <f>-39</f>
+        <v>-39</v>
+      </c>
+      <c r="S55" t="str">
+        <v>-41-39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <v>10-40-13</v>
+      </c>
+      <c r="Q56">
+        <v>-31</v>
+      </c>
+      <c r="R56">
+        <f>-32</f>
+        <v>-32</v>
+      </c>
+      <c r="S56" t="str">
+        <v>-41-32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <v>10-40-3</v>
+      </c>
+      <c r="S57" t="str">
+        <v>-35-40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <v>10-40-32</v>
+      </c>
+      <c r="S58" t="str">
+        <v>-35-39</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <v>10-40-29</v>
+      </c>
+      <c r="S59" t="str">
+        <v>-35-32</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <v>10-21-21</v>
+      </c>
+      <c r="S60" t="str">
+        <v>-31-40</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B61" t="str">
+        <v>10-21-10</v>
+      </c>
+      <c r="S61" t="str">
+        <v>-31-39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B62" t="str">
+        <v>10-21-6</v>
+      </c>
+      <c r="S62" t="str">
+        <v>-31-32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B63" t="str">
+        <v>10-21-24</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B64" t="str">
+        <v>10-21-29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="str">
+        <v>10-21-13</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="str">
+        <v>10-21-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="str">
+        <v>10-21-32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="str">
+        <v>10-21-29</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="str">
+        <v>10-28-21</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="str">
+        <v>10-28-10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="str">
+        <v>10-28-6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="str">
+        <v>10-28-24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="str">
+        <v>10-28-29</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="str">
+        <v>10-28-13</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="str">
+        <v>10-28-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="str">
+        <v>10-28-32</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="str">
+        <v>10-28-29</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="str">
+        <v>10-32-21</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="str">
+        <v>10-32-10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="str">
+        <v>10-32-6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="str">
+        <v>10-32-24</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="str">
+        <v>10-32-29</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="str">
+        <v>10-32-13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="str">
+        <v>10-32-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="str">
+        <v>10-32-32</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="str">
+        <v>10-32-29</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="str">
+        <v>10-28-21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="str">
+        <v>10-28-10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="str">
+        <v>10-28-6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="str">
+        <v>10-28-24</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="str">
+        <v>10-28-29</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="str">
+        <v>10-28-13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="str">
+        <v>10-28-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="str">
+        <v>10-28-32</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="str">
+        <v>10-28-29</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="str">
+        <v>26-39-21</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="str">
+        <v>26-39-10</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="str">
+        <v>26-39-6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="str">
+        <v>26-39-24</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="str">
+        <v>26-39-29</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="str">
+        <v>26-39-13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="str">
+        <v>26-39-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="str">
+        <v>26-39-32</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="str">
+        <v>26-39-29</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="str">
+        <v>26-27-21</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="str">
+        <v>26-27-10</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="str">
+        <v>26-27-6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="str">
+        <v>26-27-24</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="str">
+        <v>26-27-29</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="str">
+        <v>26-27-13</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="str">
+        <v>26-27-3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="str">
+        <v>26-27-32</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="str">
+        <v>26-27-29</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="str">
+        <v>26-19-21</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="str">
+        <v>26-19-10</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="str">
+        <v>26-19-6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="str">
+        <v>26-19-24</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="str">
+        <v>26-19-29</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="str">
+        <v>26-19-13</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="str">
+        <v>26-19-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="str">
+        <v>26-19-32</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="str">
+        <v>26-19-29</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="str">
+        <v>26-9-21</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="str">
+        <v>26-9-10</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="str">
+        <v>26-9-6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="str">
+        <v>26-9-24</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="str">
+        <v>26-9-29</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="str">
+        <v>26-9-13</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="str">
+        <v>26-9-3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="str">
+        <v>26-9-32</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="str">
+        <v>26-9-29</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="str">
+        <v>26-40-21</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="str">
+        <v>26-40-10</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="str">
+        <v>26-40-6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="str">
+        <v>26-40-24</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="str">
+        <v>26-40-29</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="str">
+        <v>26-40-13</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="str">
+        <v>26-40-3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="str">
+        <v>26-40-32</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="str">
+        <v>26-40-29</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="str">
+        <v>26-21-21</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="str">
+        <v>26-21-10</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="str">
+        <v>26-21-6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="str">
+        <v>26-21-24</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="str">
+        <v>26-21-29</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="str">
+        <v>26-21-13</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="str">
+        <v>26-21-3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="str">
+        <v>26-21-32</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="str">
+        <v>26-21-29</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="str">
+        <v>26-28-21</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="str">
+        <v>26-28-10</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="str">
+        <v>26-28-6</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="str">
+        <v>26-28-24</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="str">
+        <v>26-28-29</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="str">
+        <v>26-28-13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="str">
+        <v>26-28-3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="str">
+        <v>26-28-32</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="str">
+        <v>26-28-29</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="str">
+        <v>26-32-21</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="str">
+        <v>26-32-10</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="str">
+        <v>26-32-6</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="str">
+        <v>26-32-24</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="str">
+        <v>26-32-29</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="str">
+        <v>26-32-13</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="str">
+        <v>26-32-3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="str">
+        <v>26-32-32</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="str">
+        <v>26-32-29</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="str">
+        <v>26-28-21</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" t="str">
+        <v>26-28-10</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" t="str">
+        <v>26-28-6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" t="str">
+        <v>26-28-24</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" t="str">
+        <v>26-28-29</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" t="str">
+        <v>26-28-13</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" t="str">
+        <v>26-28-3</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" t="str">
+        <v>26-28-32</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" t="str">
+        <v>26-28-29</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" t="str">
+        <v>3-39-21</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" t="str">
+        <v>3-39-10</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" t="str">
+        <v>3-39-6</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" t="str">
+        <v>3-39-24</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" t="str">
+        <v>3-39-29</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" t="str">
+        <v>3-39-13</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" t="str">
+        <v>3-39-3</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="str">
+        <v>3-39-32</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" t="str">
+        <v>3-39-29</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" t="str">
+        <v>3-27-21</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="str">
+        <v>3-27-10</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" t="str">
+        <v>3-27-6</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" t="str">
+        <v>3-27-24</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="str">
+        <v>3-27-29</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" t="str">
+        <v>3-27-13</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" t="str">
+        <v>3-27-3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="str">
+        <v>3-27-32</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="str">
+        <v>3-27-29</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" t="str">
+        <v>3-19-21</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="str">
+        <v>3-19-10</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="str">
+        <v>3-19-6</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" t="str">
+        <v>3-19-24</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" t="str">
+        <v>3-19-29</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="str">
+        <v>3-19-13</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" t="str">
+        <v>3-19-3</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" t="str">
+        <v>3-19-32</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" t="str">
+        <v>3-19-29</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" t="str">
+        <v>3-9-21</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" t="str">
+        <v>3-9-10</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" t="str">
+        <v>3-9-6</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" t="str">
+        <v>3-9-24</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" t="str">
+        <v>3-9-29</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="str">
+        <v>3-9-13</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="str">
+        <v>3-9-3</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" t="str">
+        <v>3-9-32</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="str">
+        <v>3-9-29</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" t="str">
+        <v>3-40-21</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" t="str">
+        <v>3-40-10</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" t="str">
+        <v>3-40-6</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" t="str">
+        <v>3-40-24</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" t="str">
+        <v>3-40-29</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" t="str">
+        <v>3-40-13</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" t="str">
+        <v>3-40-3</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" t="str">
+        <v>3-40-32</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" t="str">
+        <v>3-40-29</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" t="str">
+        <v>3-21-21</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" t="str">
+        <v>3-21-10</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" t="str">
+        <v>3-21-6</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" t="str">
+        <v>3-21-24</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" t="str">
+        <v>3-21-29</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" t="str">
+        <v>3-21-13</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" t="str">
+        <v>3-21-3</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" t="str">
+        <v>3-21-32</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" t="str">
+        <v>3-21-29</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" t="str">
+        <v>3-28-21</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" t="str">
+        <v>3-28-10</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" t="str">
+        <v>3-28-6</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" t="str">
+        <v>3-28-24</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" t="str">
+        <v>3-28-29</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" t="str">
+        <v>3-28-13</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" t="str">
+        <v>3-28-3</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" t="str">
+        <v>3-28-32</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" t="str">
+        <v>3-28-29</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" t="str">
+        <v>3-32-21</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" t="str">
+        <v>3-32-10</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" t="str">
+        <v>3-32-6</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" t="str">
+        <v>3-32-24</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" t="str">
+        <v>3-32-29</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" t="str">
+        <v>3-32-13</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" t="str">
+        <v>3-32-3</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" t="str">
+        <v>3-32-32</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" t="str">
+        <v>3-32-29</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" t="str">
+        <v>3-28-21</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" t="str">
+        <v>3-28-10</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" t="str">
+        <v>3-28-6</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" t="str">
+        <v>3-28-24</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" t="str">
+        <v>3-28-29</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" t="str">
+        <v>3-28-13</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" t="str">
+        <v>3-28-3</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" t="str">
+        <v>3-28-32</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" t="str">
+        <v>3-28-29</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" t="str">
+        <v>31-39-21</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" t="str">
+        <v>31-39-10</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" t="str">
+        <v>31-39-6</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" t="str">
+        <v>31-39-24</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" t="str">
+        <v>31-39-29</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" t="str">
+        <v>31-39-13</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" t="str">
+        <v>31-39-3</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" t="str">
+        <v>31-39-32</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" t="str">
+        <v>31-39-29</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" t="str">
+        <v>31-27-21</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" t="str">
+        <v>31-27-10</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" t="str">
+        <v>31-27-6</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" t="str">
+        <v>31-27-24</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" t="str">
+        <v>31-27-29</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" t="str">
+        <v>31-27-13</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" t="str">
+        <v>31-27-3</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" t="str">
+        <v>31-27-32</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" t="str">
+        <v>31-27-29</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" t="str">
+        <v>31-19-21</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" t="str">
+        <v>31-19-10</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" t="str">
+        <v>31-19-6</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" t="str">
+        <v>31-19-24</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" t="str">
+        <v>31-19-29</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" t="str">
+        <v>31-19-13</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" t="str">
+        <v>31-19-3</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" t="str">
+        <v>31-19-32</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" t="str">
+        <v>31-19-29</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" t="str">
+        <v>31-9-21</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" t="str">
+        <v>31-9-10</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" t="str">
+        <v>31-9-6</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" t="str">
+        <v>31-9-24</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" t="str">
+        <v>31-9-29</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" t="str">
+        <v>31-9-13</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" t="str">
+        <v>31-9-3</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" t="str">
+        <v>31-9-32</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" t="str">
+        <v>31-9-29</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" t="str">
+        <v>31-40-21</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" t="str">
+        <v>31-40-10</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" t="str">
+        <v>31-40-6</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" t="str">
+        <v>31-40-24</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" t="str">
+        <v>31-40-29</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" t="str">
+        <v>31-40-13</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" t="str">
+        <v>31-40-3</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" t="str">
+        <v>31-40-32</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" t="str">
+        <v>31-40-29</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" t="str">
+        <v>31-21-21</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" t="str">
+        <v>31-21-10</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" t="str">
+        <v>31-21-6</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" t="str">
+        <v>31-21-24</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307" t="str">
+        <v>31-21-29</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" t="str">
+        <v>31-21-13</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" t="str">
+        <v>31-21-3</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310" t="str">
+        <v>31-21-32</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" t="str">
+        <v>31-21-29</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" t="str">
+        <v>31-28-21</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" t="str">
+        <v>31-28-10</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" t="str">
+        <v>31-28-6</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" t="str">
+        <v>31-28-24</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" t="str">
+        <v>31-28-29</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317" t="str">
+        <v>31-28-13</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" t="str">
+        <v>31-28-3</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" t="str">
+        <v>31-28-32</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" t="str">
+        <v>31-28-29</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" t="str">
+        <v>31-32-21</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" t="str">
+        <v>31-32-10</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" t="str">
+        <v>31-32-6</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" t="str">
+        <v>31-32-24</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" t="str">
+        <v>31-32-29</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" t="str">
+        <v>31-32-13</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" t="str">
+        <v>31-32-3</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" t="str">
+        <v>31-32-32</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" t="str">
+        <v>31-32-29</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" t="str">
+        <v>31-28-21</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" t="str">
+        <v>31-28-10</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" t="str">
+        <v>31-28-6</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" t="str">
+        <v>31-28-24</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" t="str">
+        <v>31-28-29</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" t="str">
+        <v>31-28-13</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" t="str">
+        <v>31-28-3</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" t="str">
+        <v>31-28-32</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" t="str">
+        <v>31-28-29</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" t="str">
+        <v>35-39-21</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" t="str">
+        <v>35-39-10</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" t="str">
+        <v>35-39-6</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" t="str">
+        <v>35-39-24</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343" t="str">
+        <v>35-39-29</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344" t="str">
+        <v>35-39-13</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345" t="str">
+        <v>35-39-3</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346" t="str">
+        <v>35-39-32</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347" t="str">
+        <v>35-39-29</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348" t="str">
+        <v>35-27-21</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349" t="str">
+        <v>35-27-10</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B350" t="str">
+        <v>35-27-6</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351" t="str">
+        <v>35-27-24</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B352" t="str">
+        <v>35-27-29</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353" t="str">
+        <v>35-27-13</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B354" t="str">
+        <v>35-27-3</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355" t="str">
+        <v>35-27-32</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B356" t="str">
+        <v>35-27-29</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357" t="str">
+        <v>35-19-21</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358" t="str">
+        <v>35-19-10</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B359" t="str">
+        <v>35-19-6</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360" t="str">
+        <v>35-19-24</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B361" t="str">
+        <v>35-19-29</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362" t="str">
+        <v>35-19-13</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363" t="str">
+        <v>35-19-3</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B364" t="str">
+        <v>35-19-32</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" t="str">
+        <v>35-19-29</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B366" t="str">
+        <v>35-9-21</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367" t="str">
+        <v>35-9-10</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368" t="str">
+        <v>35-9-6</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B369" t="str">
+        <v>35-9-24</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370" t="str">
+        <v>35-9-29</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B371" t="str">
+        <v>35-9-13</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B372" t="str">
+        <v>35-9-3</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373" t="str">
+        <v>35-9-32</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B374" t="str">
+        <v>35-9-29</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375" t="str">
+        <v>35-40-21</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376" t="str">
+        <v>35-40-10</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B377" t="str">
+        <v>35-40-6</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378" t="str">
+        <v>35-40-24</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B379" t="str">
+        <v>35-40-29</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B380" t="str">
+        <v>35-40-13</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381" t="str">
+        <v>35-40-3</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B382" t="str">
+        <v>35-40-32</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B383" t="str">
+        <v>35-40-29</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B384" t="str">
+        <v>35-21-21</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385" t="str">
+        <v>35-21-10</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B386" t="str">
+        <v>35-21-6</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B387" t="str">
+        <v>35-21-24</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388" t="str">
+        <v>35-21-29</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B389" t="str">
+        <v>35-21-13</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B390" t="str">
+        <v>35-21-3</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B391" t="str">
+        <v>35-21-32</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B392" t="str">
+        <v>35-21-29</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B393" t="str">
+        <v>35-28-21</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B394" t="str">
+        <v>35-28-10</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395" t="str">
+        <v>35-28-6</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B396" t="str">
+        <v>35-28-24</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B397" t="str">
+        <v>35-28-29</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B398" t="str">
+        <v>35-28-13</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B399" t="str">
+        <v>35-28-3</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B400" t="str">
+        <v>35-28-32</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B401" t="str">
+        <v>35-28-29</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B402" t="str">
+        <v>35-32-21</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B403" t="str">
+        <v>35-32-10</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B404" t="str">
+        <v>35-32-6</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B405" t="str">
+        <v>35-32-24</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B406" t="str">
+        <v>35-32-29</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B407" t="str">
+        <v>35-32-13</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B408" t="str">
+        <v>35-32-3</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B409" t="str">
+        <v>35-32-32</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B410" t="str">
+        <v>35-32-29</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B411" t="str">
+        <v>35-28-21</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B412" t="str">
+        <v>35-28-10</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B413" t="str">
+        <v>35-28-6</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B414" t="str">
+        <v>35-28-24</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B415" t="str">
+        <v>35-28-29</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B416" t="str">
+        <v>35-28-13</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B417" t="str">
+        <v>35-28-3</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B418" t="str">
+        <v>35-28-32</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B419" t="str">
+        <v>35-28-29</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B420" t="str">
+        <v>13-39-21</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B421" t="str">
+        <v>13-39-10</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B422" t="str">
+        <v>13-39-6</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423" t="str">
+        <v>13-39-24</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B424" t="str">
+        <v>13-39-29</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B425" t="str">
+        <v>13-39-13</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B426" t="str">
+        <v>13-39-3</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B427" t="str">
+        <v>13-39-32</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B428" t="str">
+        <v>13-39-29</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B429" t="str">
+        <v>13-27-21</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B430" t="str">
+        <v>13-27-10</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B431" t="str">
+        <v>13-27-6</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B432" t="str">
+        <v>13-27-24</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B433" t="str">
+        <v>13-27-29</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B434" t="str">
+        <v>13-27-13</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B435" t="str">
+        <v>13-27-3</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B436" t="str">
+        <v>13-27-32</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B437" t="str">
+        <v>13-27-29</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B438" t="str">
+        <v>13-19-21</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B439" t="str">
+        <v>13-19-10</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B440" t="str">
+        <v>13-19-6</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B441" t="str">
+        <v>13-19-24</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B442" t="str">
+        <v>13-19-29</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B443" t="str">
+        <v>13-19-13</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B444" t="str">
+        <v>13-19-3</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B445" t="str">
+        <v>13-19-32</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B446" t="str">
+        <v>13-19-29</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B447" t="str">
+        <v>13-9-21</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B448" t="str">
+        <v>13-9-10</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B449" t="str">
+        <v>13-9-6</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B450" t="str">
+        <v>13-9-24</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451" t="str">
+        <v>13-9-29</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B452" t="str">
+        <v>13-9-13</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B453" t="str">
+        <v>13-9-3</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B454" t="str">
+        <v>13-9-32</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B455" t="str">
+        <v>13-9-29</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B456" t="str">
+        <v>13-40-21</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B457" t="str">
+        <v>13-40-10</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B458" t="str">
+        <v>13-40-6</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B459" t="str">
+        <v>13-40-24</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B460" t="str">
+        <v>13-40-29</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B461" t="str">
+        <v>13-40-13</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B462" t="str">
+        <v>13-40-3</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B463" t="str">
+        <v>13-40-32</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B464" t="str">
+        <v>13-40-29</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B465" t="str">
+        <v>13-21-21</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B466" t="str">
+        <v>13-21-10</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B467" t="str">
+        <v>13-21-6</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B468" t="str">
+        <v>13-21-24</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B469" t="str">
+        <v>13-21-29</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B470" t="str">
+        <v>13-21-13</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B471" t="str">
+        <v>13-21-3</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B472" t="str">
+        <v>13-21-32</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B473" t="str">
+        <v>13-21-29</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B474" t="str">
+        <v>13-28-21</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B475" t="str">
+        <v>13-28-10</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B476" t="str">
+        <v>13-28-6</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B477" t="str">
+        <v>13-28-24</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B478" t="str">
+        <v>13-28-29</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B479" t="str">
+        <v>13-28-13</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B480" t="str">
+        <v>13-28-3</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B481" t="str">
+        <v>13-28-32</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B482" t="str">
+        <v>13-28-29</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B483" t="str">
+        <v>13-32-21</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B484" t="str">
+        <v>13-32-10</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B485" t="str">
+        <v>13-32-6</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B486" t="str">
+        <v>13-32-24</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B487" t="str">
+        <v>13-32-29</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B488" t="str">
+        <v>13-32-13</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B489" t="str">
+        <v>13-32-3</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B490" t="str">
+        <v>13-32-32</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B491" t="str">
+        <v>13-32-29</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B492" t="str">
+        <v>13-28-21</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B493" t="str">
+        <v>13-28-10</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B494" t="str">
+        <v>13-28-6</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B495" t="str">
+        <v>13-28-24</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B496" t="str">
+        <v>13-28-29</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B497" t="str">
+        <v>13-28-13</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B498" t="str">
+        <v>13-28-3</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B499" t="str">
+        <v>13-28-32</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B500" t="str">
+        <v>13-28-29</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B501" t="str">
+        <v>41-39-21</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B502" t="str">
+        <v>41-39-10</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B503" t="str">
+        <v>41-39-6</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B504" t="str">
+        <v>41-39-24</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B505" t="str">
+        <v>41-39-29</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B506" t="str">
+        <v>41-39-13</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B507" t="str">
+        <v>41-39-3</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B508" t="str">
+        <v>41-39-32</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B509" t="str">
+        <v>41-39-29</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B510" t="str">
+        <v>41-27-21</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B511" t="str">
+        <v>41-27-10</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B512" t="str">
+        <v>41-27-6</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B513" t="str">
+        <v>41-27-24</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B514" t="str">
+        <v>41-27-29</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B515" t="str">
+        <v>41-27-13</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B516" t="str">
+        <v>41-27-3</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B517" t="str">
+        <v>41-27-32</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B518" t="str">
+        <v>41-27-29</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B519" t="str">
+        <v>41-19-21</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B520" t="str">
+        <v>41-19-10</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B521" t="str">
+        <v>41-19-6</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B522" t="str">
+        <v>41-19-24</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B523" t="str">
+        <v>41-19-29</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B524" t="str">
+        <v>41-19-13</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B525" t="str">
+        <v>41-19-3</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B526" t="str">
+        <v>41-19-32</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B527" t="str">
+        <v>41-19-29</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B528" t="str">
+        <v>41-9-21</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B529" t="str">
+        <v>41-9-10</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B530" t="str">
+        <v>41-9-6</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B531" t="str">
+        <v>41-9-24</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B532" t="str">
+        <v>41-9-29</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B533" t="str">
+        <v>41-9-13</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B534" t="str">
+        <v>41-9-3</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B535" t="str">
+        <v>41-9-32</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B536" t="str">
+        <v>41-9-29</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B537" t="str">
+        <v>41-40-21</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B538" t="str">
+        <v>41-40-10</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B539" t="str">
+        <v>41-40-6</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B540" t="str">
+        <v>41-40-24</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B541" t="str">
+        <v>41-40-29</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B542" t="str">
+        <v>41-40-13</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B543" t="str">
+        <v>41-40-3</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B544" t="str">
+        <v>41-40-32</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B545" t="str">
+        <v>41-40-29</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B546" t="str">
+        <v>41-21-21</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B547" t="str">
+        <v>41-21-10</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B548" t="str">
+        <v>41-21-6</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B549" t="str">
+        <v>41-21-24</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B550" t="str">
+        <v>41-21-29</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B551" t="str">
+        <v>41-21-13</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B552" t="str">
+        <v>41-21-3</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B553" t="str">
+        <v>41-21-32</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B554" t="str">
+        <v>41-21-29</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B555" t="str">
+        <v>41-28-21</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B556" t="str">
+        <v>41-28-10</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B557" t="str">
+        <v>41-28-6</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B558" t="str">
+        <v>41-28-24</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B559" t="str">
+        <v>41-28-29</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B560" t="str">
+        <v>41-28-13</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B561" t="str">
+        <v>41-28-3</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B562" t="str">
+        <v>41-28-32</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B563" t="str">
+        <v>41-28-29</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B564" t="str">
+        <v>41-32-21</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B565" t="str">
+        <v>41-32-10</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B566" t="str">
+        <v>41-32-6</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B567" t="str">
+        <v>41-32-24</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B568" t="str">
+        <v>41-32-29</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B569" t="str">
+        <v>41-32-13</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B570" t="str">
+        <v>41-32-3</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B571" t="str">
+        <v>41-32-32</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B572" t="str">
+        <v>41-32-29</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B573" t="str">
+        <v>41-28-21</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B574" t="str">
+        <v>41-28-10</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B575" t="str">
+        <v>41-28-6</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B576" t="str">
+        <v>41-28-24</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B577" t="str">
+        <v>41-28-29</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B578" t="str">
+        <v>41-28-13</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B579" t="str">
+        <v>41-28-3</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B580" t="str">
+        <v>41-28-32</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B581" t="str">
+        <v>41-28-29</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B582" t="str">
+        <v>21-39-21</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B583" t="str">
+        <v>21-39-10</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B584" t="str">
+        <v>21-39-6</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B585" t="str">
+        <v>21-39-24</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B586" t="str">
+        <v>21-39-29</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B587" t="str">
+        <v>21-39-13</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B588" t="str">
+        <v>21-39-3</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B589" t="str">
+        <v>21-39-32</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B590" t="str">
+        <v>21-39-29</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B591" t="str">
+        <v>21-27-21</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B592" t="str">
+        <v>21-27-10</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B593" t="str">
+        <v>21-27-6</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B594" t="str">
+        <v>21-27-24</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B595" t="str">
+        <v>21-27-29</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B596" t="str">
+        <v>21-27-13</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B597" t="str">
+        <v>21-27-3</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B598" t="str">
+        <v>21-27-32</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B599" t="str">
+        <v>21-27-29</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B600" t="str">
+        <v>21-19-21</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B601" t="str">
+        <v>21-19-10</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B602" t="str">
+        <v>21-19-6</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B603" t="str">
+        <v>21-19-24</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B604" t="str">
+        <v>21-19-29</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B605" t="str">
+        <v>21-19-13</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B606" t="str">
+        <v>21-19-3</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B607" t="str">
+        <v>21-19-32</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B608" t="str">
+        <v>21-19-29</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B609" t="str">
+        <v>21-9-21</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B610" t="str">
+        <v>21-9-10</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B611" t="str">
+        <v>21-9-6</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B612" t="str">
+        <v>21-9-24</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B613" t="str">
+        <v>21-9-29</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B614" t="str">
+        <v>21-9-13</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B615" t="str">
+        <v>21-9-3</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B616" t="str">
+        <v>21-9-32</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B617" t="str">
+        <v>21-9-29</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B618" t="str">
+        <v>21-40-21</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B619" t="str">
+        <v>21-40-10</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B620" t="str">
+        <v>21-40-6</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B621" t="str">
+        <v>21-40-24</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B622" t="str">
+        <v>21-40-29</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B623" t="str">
+        <v>21-40-13</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B624" t="str">
+        <v>21-40-3</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B625" t="str">
+        <v>21-40-32</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B626" t="str">
+        <v>21-40-29</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B627" t="str">
+        <v>21-21-21</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B628" t="str">
+        <v>21-21-10</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B629" t="str">
+        <v>21-21-6</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B630" t="str">
+        <v>21-21-24</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B631" t="str">
+        <v>21-21-29</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B632" t="str">
+        <v>21-21-13</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B633" t="str">
+        <v>21-21-3</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B634" t="str">
+        <v>21-21-32</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B635" t="str">
+        <v>21-21-29</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B636" t="str">
+        <v>21-28-21</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B637" t="str">
+        <v>21-28-10</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B638" t="str">
+        <v>21-28-6</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B639" t="str">
+        <v>21-28-24</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B640" t="str">
+        <v>21-28-29</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B641" t="str">
+        <v>21-28-13</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B642" t="str">
+        <v>21-28-3</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B643" t="str">
+        <v>21-28-32</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B644" t="str">
+        <v>21-28-29</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B645" t="str">
+        <v>21-32-21</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B646" t="str">
+        <v>21-32-10</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B647" t="str">
+        <v>21-32-6</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B648" t="str">
+        <v>21-32-24</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B649" t="str">
+        <v>21-32-29</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B650" t="str">
+        <v>21-32-13</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B651" t="str">
+        <v>21-32-3</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B652" t="str">
+        <v>21-32-32</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B653" t="str">
+        <v>21-32-29</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B654" t="str">
+        <v>21-28-21</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B655" t="str">
+        <v>21-28-10</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B656" t="str">
+        <v>21-28-6</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B657" t="str">
+        <v>21-28-24</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B658" t="str">
+        <v>21-28-29</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B659" t="str">
+        <v>21-28-13</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B660" t="str">
+        <v>21-28-3</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B661" t="str">
+        <v>21-28-32</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B662" t="str">
+        <v>21-28-29</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B663" t="str">
+        <v>6-39-21</v>
+      </c>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B664" t="str">
+        <v>6-39-10</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B665" t="str">
+        <v>6-39-6</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B666" t="str">
+        <v>6-39-24</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B667" t="str">
+        <v>6-39-29</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B668" t="str">
+        <v>6-39-13</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B669" t="str">
+        <v>6-39-3</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B670" t="str">
+        <v>6-39-32</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B671" t="str">
+        <v>6-39-29</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B672" t="str">
+        <v>6-27-21</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B673" t="str">
+        <v>6-27-10</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B674" t="str">
+        <v>6-27-6</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B675" t="str">
+        <v>6-27-24</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B676" t="str">
+        <v>6-27-29</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B677" t="str">
+        <v>6-27-13</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B678" t="str">
+        <v>6-27-3</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B679" t="str">
+        <v>6-27-32</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B680" t="str">
+        <v>6-27-29</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B681" t="str">
+        <v>6-19-21</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B682" t="str">
+        <v>6-19-10</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B683" t="str">
+        <v>6-19-6</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B684" t="str">
+        <v>6-19-24</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B685" t="str">
+        <v>6-19-29</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B686" t="str">
+        <v>6-19-13</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B687" t="str">
+        <v>6-19-3</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B688" t="str">
+        <v>6-19-32</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B689" t="str">
+        <v>6-19-29</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B690" t="str">
+        <v>6-9-21</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B691" t="str">
+        <v>6-9-10</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B692" t="str">
+        <v>6-9-6</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B693" t="str">
+        <v>6-9-24</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B694" t="str">
+        <v>6-9-29</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B695" t="str">
+        <v>6-9-13</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B696" t="str">
+        <v>6-9-3</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B697" t="str">
+        <v>6-9-32</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B698" t="str">
+        <v>6-9-29</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B699" t="str">
+        <v>6-40-21</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B700" t="str">
+        <v>6-40-10</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B701" t="str">
+        <v>6-40-6</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B702" t="str">
+        <v>6-40-24</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B703" t="str">
+        <v>6-40-29</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B704" t="str">
+        <v>6-40-13</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B705" t="str">
+        <v>6-40-3</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B706" t="str">
+        <v>6-40-32</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B707" t="str">
+        <v>6-40-29</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B708" t="str">
+        <v>6-21-21</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B709" t="str">
+        <v>6-21-10</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B710" t="str">
+        <v>6-21-6</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B711" t="str">
+        <v>6-21-24</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B712" t="str">
+        <v>6-21-29</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B713" t="str">
+        <v>6-21-13</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B714" t="str">
+        <v>6-21-3</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B715" t="str">
+        <v>6-21-32</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B716" t="str">
+        <v>6-21-29</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B717" t="str">
+        <v>6-28-21</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B718" t="str">
+        <v>6-28-10</v>
+      </c>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B719" t="str">
+        <v>6-28-6</v>
+      </c>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B720" t="str">
+        <v>6-28-24</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B721" t="str">
+        <v>6-28-29</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B722" t="str">
+        <v>6-28-13</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B723" t="str">
+        <v>6-28-3</v>
+      </c>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B724" t="str">
+        <v>6-28-32</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B725" t="str">
+        <v>6-28-29</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B726" t="str">
+        <v>6-32-21</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B727" t="str">
+        <v>6-32-10</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B728" t="str">
+        <v>6-32-6</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B729" t="str">
+        <v>6-32-24</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B730" t="str">
+        <v>6-32-29</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B731" t="str">
+        <v>6-32-13</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B732" t="str">
+        <v>6-32-3</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B733" t="str">
+        <v>6-32-32</v>
+      </c>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B734" t="str">
+        <v>6-32-29</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B735" t="str">
+        <v>6-28-21</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B736" t="str">
+        <v>6-28-10</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B737" t="str">
+        <v>6-28-6</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B738" t="str">
+        <v>6-28-24</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B739" t="str">
+        <v>6-28-29</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B740" t="str">
+        <v>6-28-13</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B741" t="str">
+        <v>6-28-3</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B742" t="str">
+        <v>6-28-32</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B743" t="str">
+        <v>6-28-29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FA8FE6-CA83-4B62-8D5A-3A53E656BF1C}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>52480</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>51168</v>
+      </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>47560</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{734BD2F0-AB99-4405-97C2-7C359926A625}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel_Challenge_578 - Find Maximum Product.xlsx
+++ b/Excel_Challenge_578 - Find Maximum Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46285490-1D92-4D3F-9354-E9C9612CF77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFA9C9F-6739-46C7-A496-407D34DA651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23790" yWindow="0" windowWidth="23880" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>This is an excellent solution. I need to understand this.</t>
+  </si>
+  <si>
+    <t>Bo optimized the solution by reducing the number of combinations to look at.</t>
   </si>
 </sst>
 </file>
@@ -447,6 +450,522 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44935D1C-7777-E067-4207-E73581BE3C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="10128250"/>
+          <a:ext cx="5143500" cy="2063750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0">
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t>Lots to learn here. It was difficult to breakdown.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0">
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0">
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t>	SORT and extract the 3 biggest items from each column.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	Form all combinations of these three sets</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> of numbers.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t>This involves uses</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t> implicit intersection.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> means using TOROW to make the column row-oriented.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> concatenatve (&amp;) to make the implicit intersection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> CONCAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> and TEXTSPLIT to make all combinations.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	Form</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Product Column</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	SORT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:tabLst>
+              <a:tab pos="274320" algn="l"/>
+              <a:tab pos="548640" algn="l"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	Grab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> top 3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -701,7 +1220,55 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:txDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr marL="0" indent="0" algn="l">
+          <a:tabLst>
+            <a:tab pos="274320" algn="l"/>
+            <a:tab pos="548640" algn="l"/>
+          </a:tabLst>
+          <a:defRPr sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -5052,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7609F94-D06D-46DE-9604-3FD5C8A48854}">
   <dimension ref="A1:S743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="T52" sqref="T52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5266,6 +5833,9 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">

--- a/Excel_Challenge_578 - Find Maximum Product.xlsx
+++ b/Excel_Challenge_578 - Find Maximum Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFA9C9F-6739-46C7-A496-407D34DA651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A37EC9-2EB2-465D-95A9-6F8B8DB6DC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23790" yWindow="0" windowWidth="23880" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -1298,6 +1298,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -5619,8 +5622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7609F94-D06D-46DE-9604-3FD5C8A48854}">
   <dimension ref="A1:S743"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5639,7 +5642,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6267,7 +6270,7 @@
         <v>-41-32-29</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" t="str">
         <v>10-19-6</v>
       </c>
@@ -10198,9 +10201,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N1" r:id="rId1" xr:uid="{39E413D4-070A-4592-B58D-958086F05055}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
